--- a/BD paper/catalogos/waveform_4p2_0.5_filtered.xlsx
+++ b/BD paper/catalogos/waveform_4p2_0.5_filtered.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,31 @@
           <t>Estación más cercana 5</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 4</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -540,6 +565,31 @@
           <t>PSGCX</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2014-04-03T11:50:48</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2014-04-03T11:50:49</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2014-04-03T11:50:51</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2014-04-03T11:50:56</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2014-04-03T11:50:59</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -587,6 +637,31 @@
           <t>AP01</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2014-04-02T16:50:30</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2014-04-02T16:50:35</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2014-04-02T16:50:40</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2014-04-02T16:50:40</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2014-04-02T16:50:44</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -634,6 +709,31 @@
           <t>PX02</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2016-02-12T22:32:08</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2016-02-12T22:32:09</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2016-02-12T22:32:12</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2016-02-12T22:32:15</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2016-02-12T22:32:17</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -681,6 +781,31 @@
           <t>IN40</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2016-07-25T14:59:31</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2016-07-25T14:59:36</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2016-07-25T14:59:40</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2016-07-25T14:59:41</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2016-07-25T14:59:41</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -728,6 +853,31 @@
           <t>AC05</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2017-02-12T16:21:15</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2017-02-12T16:21:21</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2017-02-12T16:21:24</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2017-02-12T16:21:24</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2017-02-12T16:21:28</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -775,6 +925,31 @@
           <t>IN40</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2019-10-21T12:02:46</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2019-10-21T12:02:50</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019-10-21T12:02:52</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2019-10-21T12:02:53</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2019-10-21T12:02:53</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -822,6 +997,31 @@
           <t>AC04</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2020-03-30T14:53:39</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2020-03-30T14:53:46</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2020-03-30T14:53:47</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2020-03-30T14:53:49</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2020-03-30T14:53:51</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -869,6 +1069,31 @@
           <t>IN41</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2020-04-03T08:48:03</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2020-04-03T08:48:12</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2020-04-03T08:48:13</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2020-04-03T08:48:13</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2020-04-03T08:48:13</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -916,6 +1141,31 @@
           <t>CO10</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2020-06-15T04:35:47</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2020-06-15T04:35:47</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2020-06-15T04:35:48</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2020-06-15T04:35:52</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2020-06-15T04:35:55</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -963,6 +1213,31 @@
           <t>PB04</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2020-07-20T20:33:54</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2020-07-20T20:34:06</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2020-07-20T20:34:13</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2020-07-20T20:34:16</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2020-07-20T20:34:23</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1008,6 +1283,31 @@
       <c r="K12" t="inlineStr">
         <is>
           <t>CO10</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2020-09-03T03:24:00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2020-09-03T03:24:07</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2020-09-03T03:24:10</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2020-09-03T03:24:10</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2020-09-03T03:24:11</t>
         </is>
       </c>
     </row>
